--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/B/10/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/B/10/seed3/result_data_RandomForest.xlsx
@@ -601,7 +601,7 @@
         <v>-18.76</v>
       </c>
       <c r="B10" t="n">
-        <v>8.753400000000005</v>
+        <v>8.5562</v>
       </c>
       <c r="C10" t="n">
         <v>-10.58</v>
@@ -635,7 +635,7 @@
         <v>-24</v>
       </c>
       <c r="B12" t="n">
-        <v>6.099199999999997</v>
+        <v>6.0802</v>
       </c>
       <c r="C12" t="n">
         <v>-15.79</v>
@@ -737,7 +737,7 @@
         <v>-23.05</v>
       </c>
       <c r="B18" t="n">
-        <v>4.746300000000004</v>
+        <v>4.839900000000005</v>
       </c>
       <c r="C18" t="n">
         <v>-15.19</v>
